--- a/test/output/封包遺失率比較.xlsx
+++ b/test/output/封包遺失率比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCDC2A-100C-4DBC-AA57-3CB2EABE30CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70773F7-B152-4C9C-9F3A-556C80941063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="3525" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="1725" windowWidth="14595" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>special 1400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my(1-3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my(1-2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -532,25 +544,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.8153099999999999E-2</c:v>
+                  <c:v>0.13042999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4925000000000002E-2</c:v>
+                  <c:v>0.13092400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.35681E-2</c:v>
+                  <c:v>0.130826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2504599999999998E-2</c:v>
+                  <c:v>0.13083800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3048199999999997E-2</c:v>
+                  <c:v>0.131078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4497999999999998E-2</c:v>
+                  <c:v>0.13123499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7111599999999998E-2</c:v>
+                  <c:v>0.13098199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,7 +912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$8</c:f>
+              <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +948,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -966,7 +978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:f>工作表1!$C$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1006,7 +1018,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$9</c:f>
+              <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1042,7 +1054,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1072,7 +1084,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1112,7 +1124,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
+              <c:f>工作表1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1148,7 +1160,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1178,7 +1190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:f>工作表1!$C$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1218,7 +1230,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
+              <c:f>工作表1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,7 +1264,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1282,30 +1294,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:f>工作表1!$C$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.7203799999999999E-2</c:v>
+                  <c:v>5.7062000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6363000000000003E-2</c:v>
+                  <c:v>5.5892699999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4406700000000002E-2</c:v>
+                  <c:v>5.5457300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4859199999999997E-2</c:v>
+                  <c:v>5.6272500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5553400000000003E-2</c:v>
+                  <c:v>5.5972300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9482500000000001E-2</c:v>
+                  <c:v>5.92004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8359599999999998E-2</c:v>
+                  <c:v>5.8517199999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,6 +1326,216 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EC4E-485C-B520-B3103E5195BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my(1-2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.8258200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7393E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5727400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5147799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6059600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8247199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.04641E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7656-4CAE-AEA1-76579D3938A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my(1-3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7203799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6363000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4406700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4859199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5553400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9482500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8359599999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7656-4CAE-AEA1-76579D3938A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1655,7 +1877,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$14</c:f>
+              <c:f>工作表1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1688,7 +1910,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$C$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1718,7 +1940,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1737,7 +1959,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$15</c:f>
+              <c:f>工作表1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1770,7 +1992,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$C$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1800,7 +2022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:f>工作表1!$C$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1819,7 +2041,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$16</c:f>
+              <c:f>工作表1!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1852,7 +2074,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$C$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1882,7 +2104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3899,13 +4121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276223</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3935,13 +4157,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3971,13 +4193,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4327,21 +4549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="3" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4367,7 +4589,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4396,7 +4618,7 @@
         <v>0.13081799999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -4422,7 +4644,7 @@
         <v>0.10191600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4448,198 +4670,255 @@
         <v>1.0528300000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.13042999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.13092400000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.130826</v>
+      </c>
+      <c r="F5">
+        <v>0.13083800000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.131078</v>
+      </c>
+      <c r="H5">
+        <v>0.13123499999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.13098199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>400</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>600</v>
+      </c>
+      <c r="F9" s="1">
+        <v>700</v>
+      </c>
+      <c r="G9" s="1">
+        <v>800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>900</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.128693</v>
+      </c>
+      <c r="D10">
+        <v>0.129001</v>
+      </c>
+      <c r="E10">
+        <v>0.129415</v>
+      </c>
+      <c r="F10">
+        <v>0.12870300000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.12895599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.12889700000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.12928899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.10485</v>
+      </c>
+      <c r="D11">
+        <v>0.104327</v>
+      </c>
+      <c r="E11">
+        <v>0.103002</v>
+      </c>
+      <c r="F11">
+        <v>0.10203</v>
+      </c>
+      <c r="G11">
+        <v>0.102699</v>
+      </c>
+      <c r="H11">
+        <v>0.102019</v>
+      </c>
+      <c r="I11">
+        <v>0.10069699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>9.7487700000000004E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.00182E-2</v>
+      </c>
+      <c r="E12">
+        <v>9.5869900000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>9.7823200000000006E-3</v>
+      </c>
+      <c r="G12">
+        <v>1.0396600000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.03125E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.00917E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>5.8153099999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.4925000000000002E-2</v>
-      </c>
-      <c r="E5">
-        <v>5.35681E-2</v>
-      </c>
-      <c r="F5">
-        <v>5.2504599999999998E-2</v>
-      </c>
-      <c r="G5">
-        <v>5.3048199999999997E-2</v>
-      </c>
-      <c r="H5">
-        <v>5.4497999999999998E-2</v>
-      </c>
-      <c r="I5">
-        <v>5.7111599999999998E-2</v>
+      <c r="C13">
+        <v>5.7062000000000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.5892699999999997E-2</v>
+      </c>
+      <c r="E13">
+        <v>5.5457300000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>5.6272500000000003E-2</v>
+      </c>
+      <c r="G13">
+        <v>5.5972300000000003E-2</v>
+      </c>
+      <c r="H13">
+        <v>5.92004E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.8517199999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5.8258200000000003E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.7393E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.5727400000000003E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.5147799999999997E-2</v>
+      </c>
+      <c r="G14">
+        <v>5.6059600000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>5.8247199999999999E-2</v>
+      </c>
+      <c r="I14">
+        <v>6.04641E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>5.7203799999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>5.6363000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.4406700000000002E-2</v>
+      </c>
+      <c r="F15">
+        <v>5.4859199999999997E-2</v>
+      </c>
+      <c r="G15">
+        <v>5.5553400000000003E-2</v>
+      </c>
+      <c r="H15">
+        <v>5.9482500000000001E-2</v>
+      </c>
+      <c r="I15">
+        <v>5.8359599999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C16" s="1">
         <v>400</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D16" s="1">
         <v>500</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E16" s="1">
         <v>600</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F16" s="1">
         <v>700</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G16" s="1">
         <v>800</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H16" s="1">
         <v>900</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I16" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.128693</v>
-      </c>
-      <c r="D8">
-        <v>0.129001</v>
-      </c>
-      <c r="E8">
-        <v>0.129415</v>
-      </c>
-      <c r="F8">
-        <v>0.12870300000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.12895599999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.12889700000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.12928899999999999</v>
-      </c>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.10485</v>
-      </c>
-      <c r="D9">
-        <v>0.104327</v>
-      </c>
-      <c r="E9">
-        <v>0.103002</v>
-      </c>
-      <c r="F9">
-        <v>0.10203</v>
-      </c>
-      <c r="G9">
-        <v>0.102699</v>
-      </c>
-      <c r="H9">
-        <v>0.102019</v>
-      </c>
-      <c r="I9">
-        <v>0.10069699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>9.7487700000000004E-3</v>
-      </c>
-      <c r="D10">
-        <v>1.00182E-2</v>
-      </c>
-      <c r="E10">
-        <v>9.5869900000000001E-3</v>
-      </c>
-      <c r="F10">
-        <v>9.7823200000000006E-3</v>
-      </c>
-      <c r="G10">
-        <v>1.0396600000000001E-2</v>
-      </c>
-      <c r="H10">
-        <v>1.03125E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.00917E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>5.7203799999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>5.6363000000000003E-2</v>
-      </c>
-      <c r="E11">
-        <v>5.4406700000000002E-2</v>
-      </c>
-      <c r="F11">
-        <v>5.4859199999999997E-2</v>
-      </c>
-      <c r="G11">
-        <v>5.5553400000000003E-2</v>
-      </c>
-      <c r="H11">
-        <v>5.9482500000000001E-2</v>
-      </c>
-      <c r="I11">
-        <v>5.8359599999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>400</v>
-      </c>
-      <c r="D13" s="1">
-        <v>500</v>
-      </c>
-      <c r="E13" s="1">
-        <v>600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>700</v>
-      </c>
-      <c r="G13" s="1">
-        <v>800</v>
-      </c>
-      <c r="H13" s="1">
-        <v>900</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
